--- a/biology/Zoologie/Abudefduf_saxatilis/Abudefduf_saxatilis.xlsx
+++ b/biology/Zoologie/Abudefduf_saxatilis/Abudefduf_saxatilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abudefduf saxatilis est un poisson que l'on trouve dans les mers chaudes des Caraïbes et de Floride ainsi que sur toute la côte atlantique du continent américain, de Rhode Island jusqu'à l'Uruguay.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition, habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aabudefduf saxatilis apprécie tous les milieux dans son habitat, avec une préférence pour les eaux peu profondes. 
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille adulte d'Abudefduf saxatilis est en moyenne de 15 cm et peut atteindre au maximum 22 cm. Son poids maximum est de 200 g.
 Il est caractérisé par 5 rayures noires verticales sur ses flancs, qui se rétrécissent vers le ventre. 
@@ -577,7 +593,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il aime se déplacer en petit groupe. 
 Il ne s'effraye pas facilement à la vue des plongeurs ; il s'en approche même parfois.
@@ -609,7 +627,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle veille sur les œufs. Lors de cette garde ses écailles virent au bleu foncé. Son comportement devient agressif envers tout intrus près du nid.
 </t>
@@ -640,7 +660,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe un poisson très similaire à Abudefduf saxatilis : Abudefduf taurus.
 </t>
@@ -671,7 +693,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Humann et Ned Deloach, Reef Fish Identification, p. 135
 </t>
